--- a/B Kitchen 01.xlsx
+++ b/B Kitchen 01.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" tabRatio="811"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" tabRatio="811" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="B01004" sheetId="9" r:id="rId1"/>
     <sheet name="B01018" sheetId="8" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId3"/>
+    <sheet name="B01034" sheetId="10" r:id="rId3"/>
+    <sheet name="B01037" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="37">
   <si>
     <t>نوع الخشب المستخدم</t>
   </si>
@@ -125,6 +126,18 @@
   </si>
   <si>
     <t>علبة مناديل 550 C</t>
+  </si>
+  <si>
+    <t>B01034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حامل رموت </t>
+  </si>
+  <si>
+    <t>B01037</t>
+  </si>
+  <si>
+    <t>حامل رأسي طويل</t>
   </si>
 </sst>
 </file>
@@ -1200,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,7 +1593,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18:R19"/>
+      <selection sqref="A1:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2301,12 +2314,757 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="17" width="17.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="27.28515625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="20">
+        <f>D6/D8</f>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="F2" s="22">
+        <f>E2*D4</f>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="G2" s="52">
+        <v>4</v>
+      </c>
+      <c r="H2" s="33">
+        <v>30</v>
+      </c>
+      <c r="I2" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="J2" s="37">
+        <f>H2*I2</f>
+        <v>6</v>
+      </c>
+      <c r="K2" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="L2" s="43">
+        <f>K2*H2</f>
+        <v>18</v>
+      </c>
+      <c r="M2" s="39">
+        <f>F2+J2</f>
+        <v>42.666666666666664</v>
+      </c>
+      <c r="N2" s="21">
+        <f>L2+F2</f>
+        <v>54.666666666666664</v>
+      </c>
+      <c r="O2" s="15">
+        <f>M10/$G$2</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="P2" s="17">
+        <f>N10/$G$2</f>
+        <v>13.666666666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="53">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10">
+        <v>110</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="9">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="Q8" s="49">
+        <f>P10-O10</f>
+        <v>6.9999999999999982</v>
+      </c>
+      <c r="R8" s="54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="50">
+        <f>M2+M4+M6+M8</f>
+        <v>42.666666666666664</v>
+      </c>
+      <c r="N10" s="51">
+        <f>N2+N4+N6+N8</f>
+        <v>54.666666666666664</v>
+      </c>
+      <c r="O10" s="8">
+        <f>O2+O4+O6+O8</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="P10" s="23">
+        <f>P2+P4+P6+P8</f>
+        <v>17.666666666666664</v>
+      </c>
+      <c r="Q10" s="49">
+        <f>Q8*G2</f>
+        <v>27.999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I2" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="17" width="17.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="27.28515625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="20">
+        <f>D6/D8</f>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="F2" s="22">
+        <f>E2*D4</f>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="G2" s="52">
+        <v>8</v>
+      </c>
+      <c r="H2" s="33">
+        <v>60</v>
+      </c>
+      <c r="I2" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="J2" s="37">
+        <f>H2*I2</f>
+        <v>12</v>
+      </c>
+      <c r="K2" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="L2" s="43">
+        <f>K2*H2</f>
+        <v>36</v>
+      </c>
+      <c r="M2" s="39">
+        <f>F2+J2</f>
+        <v>48.666666666666664</v>
+      </c>
+      <c r="N2" s="21">
+        <f>L2+F2</f>
+        <v>72.666666666666657</v>
+      </c>
+      <c r="O2" s="15">
+        <f>M10/G2</f>
+        <v>6.083333333333333</v>
+      </c>
+      <c r="P2" s="17">
+        <f>N10/G2</f>
+        <v>9.0833333333333321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="53">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <f>P4</f>
+        <v>2</v>
+      </c>
+      <c r="P4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10">
+        <v>110</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <f>P6</f>
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="9">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <f>P8</f>
+        <v>1.5</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="Q8" s="49">
+        <f>P10-O10</f>
+        <v>3</v>
+      </c>
+      <c r="R8" s="54">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="50">
+        <f>M2+M4+M6+M8</f>
+        <v>48.666666666666664</v>
+      </c>
+      <c r="N10" s="51">
+        <f>N2+N4+N6+N8</f>
+        <v>72.666666666666657</v>
+      </c>
+      <c r="O10" s="8">
+        <f>O2+O4+O6+O8</f>
+        <v>10.083333333333332</v>
+      </c>
+      <c r="P10" s="23">
+        <f>P2+P4+P6+P8</f>
+        <v>13.083333333333332</v>
+      </c>
+      <c r="Q10" s="49">
+        <f>Q8*G2</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N11" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>